--- a/acervo separado/Acervo_Objeto_de_auxilio_conforto_pessoais.xlsx
+++ b/acervo separado/Acervo_Objeto_de_auxilio_conforto_pessoais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1ACAB3A5-43E3-4739-AFD3-A5BB2834EA88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB52935-FAF0-455F-94B4-995D11980287}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$15</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$15</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -119,9 +126,6 @@
     <t>Objetos pessoais</t>
   </si>
   <si>
-    <t>Porcelana</t>
-  </si>
-  <si>
     <t>1447</t>
   </si>
   <si>
@@ -131,9 +135,6 @@
     <t>Leque baralho</t>
   </si>
   <si>
-    <t>Madeira vazada e pintada</t>
-  </si>
-  <si>
     <t>22,5 x 43,0 cm</t>
   </si>
   <si>
@@ -143,9 +144,6 @@
     <t>Leque (bombom Siraudin)</t>
   </si>
   <si>
-    <t>Impressão/papel, tecido e madeira</t>
-  </si>
-  <si>
     <t>35,0 x 56,0 cm</t>
   </si>
   <si>
@@ -161,9 +159,6 @@
     <t>Leque (bordeaux)</t>
   </si>
   <si>
-    <t>Couro, cetim e madeira</t>
-  </si>
-  <si>
     <t>29,2 x 49,0 cm</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
     <t>Leque (comemorativo da Exposição Universal - Paris 1889)</t>
   </si>
   <si>
-    <t>Tecido pintado/madeira</t>
-  </si>
-  <si>
     <t>63,5 x 67,0 cm</t>
   </si>
   <si>
@@ -188,9 +180,6 @@
     <t>Leque</t>
   </si>
   <si>
-    <t>Tecido pintado/renda e madeira</t>
-  </si>
-  <si>
     <t>35,0 x 67,0 cm</t>
   </si>
   <si>
@@ -209,9 +198,6 @@
     <t>Ventarola</t>
   </si>
   <si>
-    <t>Plumas (papo de cisne)/madrepérola</t>
-  </si>
-  <si>
     <t>32,5 x 22,5 cm</t>
   </si>
   <si>
@@ -221,9 +207,6 @@
     <t>Caixa com tampa (Coliseu)</t>
   </si>
   <si>
-    <t>Mosaico/metal e granito</t>
-  </si>
-  <si>
     <t>8,0 cm</t>
   </si>
   <si>
@@ -236,9 +219,6 @@
     <t>Caixa (tampa)</t>
   </si>
   <si>
-    <t>Mosaico/metal dourado</t>
-  </si>
-  <si>
     <t>3,0 x 4,0 cm</t>
   </si>
   <si>
@@ -260,9 +240,6 @@
     <t>Porta-anel (estojo)</t>
   </si>
   <si>
-    <t>Porcelana/metal dourado e esmalte</t>
-  </si>
-  <si>
     <t>3,9 cm</t>
   </si>
   <si>
@@ -272,9 +249,6 @@
     <t>Caixa de miudezas</t>
   </si>
   <si>
-    <t>Guache/marfim, chifre, couro, metal e vidro</t>
-  </si>
-  <si>
     <t>6,0 cm</t>
   </si>
   <si>
@@ -284,15 +258,9 @@
     <t>Caixa de miudezas (efígie de D.Maria I)</t>
   </si>
   <si>
-    <t>Guache/marfim, ouro e chifre</t>
-  </si>
-  <si>
     <t>7,8 x "?" cm</t>
   </si>
   <si>
-    <t>Madrepérola</t>
-  </si>
-  <si>
     <t>1405</t>
   </si>
   <si>
@@ -387,6 +355,45 @@
   </si>
   <si>
     <t>11,3cm</t>
+  </si>
+  <si>
+    <t>mattec_174</t>
+  </si>
+  <si>
+    <t>mattec_141</t>
+  </si>
+  <si>
+    <t>mattec_76</t>
+  </si>
+  <si>
+    <t>mattec_294</t>
+  </si>
+  <si>
+    <t>mattec_295</t>
+  </si>
+  <si>
+    <t>mattec_246</t>
+  </si>
+  <si>
+    <t>mattec_204</t>
+  </si>
+  <si>
+    <t>mattec_203</t>
+  </si>
+  <si>
+    <t>mattec_252</t>
+  </si>
+  <si>
+    <t>mattec_254</t>
+  </si>
+  <si>
+    <t>mattec_136</t>
+  </si>
+  <si>
+    <t>mattec_137</t>
+  </si>
+  <si>
+    <t>mattec_177</t>
   </si>
 </sst>
 </file>
@@ -771,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,13 +857,13 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="S1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -864,22 +871,22 @@
         <v>1447</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -900,10 +907,10 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -911,16 +918,16 @@
         <v>1446</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -929,10 +936,10 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -941,19 +948,19 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -961,22 +968,22 @@
         <v>1448</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -997,10 +1004,10 @@
         <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1008,16 +1015,16 @@
         <v>1445</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1026,10 +1033,10 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -1038,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -1050,10 +1057,10 @@
         <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1061,25 +1068,25 @@
         <v>1451</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -1088,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
         <v>23</v>
@@ -1100,10 +1107,10 @@
         <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1111,22 +1118,22 @@
         <v>1449</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -1147,10 +1154,10 @@
         <v>24</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1158,22 +1165,22 @@
         <v>1450</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -1194,10 +1201,10 @@
         <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1205,22 +1212,22 @@
         <v>1369</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -1229,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
@@ -1241,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1249,25 +1256,25 @@
         <v>1373</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -1288,10 +1295,10 @@
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="S10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1299,28 +1306,28 @@
         <v>1360</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1335,13 +1342,13 @@
         <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1349,25 +1356,25 @@
         <v>1435</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -1388,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1396,25 +1403,25 @@
         <v>1417</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1435,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1443,25 +1450,25 @@
         <v>1418</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1482,7 +1489,7 @@
         <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1490,22 +1497,22 @@
         <v>1405</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1526,13 +1533,13 @@
         <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="S15" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="T15" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
